--- a/similarities/split_global/harmonic_similarity_timestamps_236.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_236.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,682 +484,722 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Ab']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:14.391133', '0:00:19.963922')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:30.325000', '0:00:35.471000')]</t>
+          <t>('0:00:10.380000', '0:00:16.320000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=14.391133']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=30.325']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=10.38</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:17.180000', '0:00:39.300000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=17.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>isophonics_251</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:25.580000', '0:01:34.240000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:51.980000')]</t>
+          <t>('0:00:07.525011', '0:00:12.935260')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:20.580000', '0:02:23.320000'), ('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:59.500000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:37.738798', '0:00:41.709410'), ('0:00:39.724104', '0:00:47.769818')]</t>
+          <t>('0:00:43.540000', '0:01:00')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=140.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=37.738798', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=43.54</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:00:00.380000', '0:00:07.840000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:17.480000', '0:00:19.720000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000')]</t>
+          <t>('0:00:03.389127', '0:00:22.035759')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab:maj']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['G:7', 'C:min', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:37.633000', '0:00:41.753000')]</t>
+          <t>('0:00:24.580000', '0:00:32.940000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000')]</t>
+          <t>('0:00:02.081000', '0:00:10.249000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=37.633']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=24.58</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=2.081</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G'], ['D', 'E:min', 'A']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G/3', 'C:maj'], ['G:maj', 'A:min', 'D:maj']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:17.839297', '0:00:30.215532'), ('0:00:47.711768', '0:00:52.088730')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:37.019000', '0:02:40.636000'), ('0:00:27.947000', '0:00:32.808000')]</t>
+          <t>('0:00:01.260000', '0:00:05.920000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=47.711768']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=27.947']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>['B', 'E/5', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:12.430000', '0:00:17.230000')]</t>
+          <t>('0:00:55.629773', '0:01:10.444104')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:10.460000', '0:00:21.920000')]</t>
+          <t>('0:01:51.920000', '0:01:55.660000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=10.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
+          <t>('0:00:35.860000', '0:00:39.460000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:07.380000')]</t>
+          <t>('0:00:34.380000', '0:00:41.200000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=35.86</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=1.92']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>isophonics_199</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F/3', 'Bb', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D', 'G', 'A', 'D']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:14.180000', '0:01:33.600000')]</t>
+          <t>('0:01:03.461000', '0:01:06.732000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
+          <t>('0:00:01.159256', '0:00:05.756807')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=74.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.461</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=3.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-199#t=1.159256</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G'], ['A', 'D', 'G']]</t>
+          <t>['G/3', 'C', 'G/3', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['F:maj/A', 'A#:maj/D', 'D#:maj']]</t>
+          <t>['B', 'E', 'B', 'E']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:17.839297', '0:00:30.215532'), ('0:00:51.473401', '0:01:00.146054')]</t>
+          <t>('0:02:10.528000', '0:02:12.075000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:21.440000'), ('0:03:07.440000', '0:03:10.020000')]</t>
+          <t>('0:00:29.888683', '0:00:38.514896')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=51.473401']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=130.528</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=187.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=29.888683</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'F']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:29.719863', '0:00:35.722222')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:01.800000', '0:01:09.440000')]</t>
+          <t>('0:00:24.180000', '0:00:30.020000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=29.719863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=61.8']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:04.824512')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:19.780000', '0:00:23.120000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'C:7', 'F']]</t>
+          <t>['C/5', 'G', 'C/5']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:31.527551', '0:00:47.026870')]</t>
+          <t>('0:00:02.500000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:38.250000', '0:00:42.100000')]</t>
+          <t>('0:00:12.094553', '0:00:16.853782')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=31.527551']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=38.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
